--- a/resources/template/FITRI.xlsx
+++ b/resources/template/FITRI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hallo_ppa\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD9EA9-08D7-47A7-B04A-37BB79720762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DDADDD-D2A3-4E09-B874-9340E3F46366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96DAB095-C63E-43E2-9BFC-56E2EB8E01C9}"/>
   </bookViews>
@@ -217,18 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -237,9 +231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,6 +252,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +583,7 @@
   <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,693 +594,817 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="6">
         <v>1</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="6">
         <v>2</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="6">
         <v>3</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="6">
         <v>4</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="6">
         <v>5</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="6">
         <v>6</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="6">
         <v>7</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="6">
         <v>8</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="6">
         <v>9</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="6">
         <v>10</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="6">
         <v>11</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="6">
         <v>12</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="6">
         <v>13</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="6">
         <v>14</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="6">
         <v>15</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="6">
         <v>16</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="6">
         <v>17</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1" s="6">
         <v>18</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="6">
         <v>19</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="6">
         <v>20</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="6">
         <v>21</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="6">
         <v>22</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="6">
         <v>23</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="6">
         <v>24</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="6">
         <v>25</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="6">
         <v>26</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1" s="6">
         <v>27</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1" s="6">
         <v>28</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AG1" s="6">
         <v>29</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AH1" s="6">
         <v>30</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AI1" s="6">
         <v>31</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AK1" s="4"/>
     </row>
     <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="16">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="13">
         <f>SUM(E2:AI2)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="16">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="13">
         <f t="shared" ref="AJ3:AJ14" si="0">SUM(E3:AI3)</f>
         <v>0</v>
       </c>
       <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="16">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK4" s="3"/>
     </row>
     <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="16">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK5" s="3"/>
     </row>
     <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="16">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="16">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="16">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="16">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="16">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="16">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="16">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="16">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="16">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="AI15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ15" s="13">
-        <f>SUM(AJ2:AJ14)</f>
+    <row r="15" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="19">
+        <f>SUM(E2:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <f>SUM(F2:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" ref="G15:AI15" si="1">SUM(G2:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="30:36" x14ac:dyDescent="0.3">
       <c r="AD17" s="2"/>
+      <c r="AI17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ17" s="10">
+        <f>SUM(AJ2:AJ14)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="30:36" x14ac:dyDescent="0.3">
-      <c r="AJ21" s="14"/>
+      <c r="AJ21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/resources/template/FITRI.xlsx
+++ b/resources/template/FITRI.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hallo_ppa\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C18573F-3AEE-47B1-8A77-54E96276767F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA230DE-516B-426A-849F-72081A1E55DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96DAB095-C63E-43E2-9BFC-56E2EB8E01C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reguler" sheetId="1" r:id="rId1"/>
+    <sheet name="Snack" sheetId="2" r:id="rId2"/>
+    <sheet name="Spesial" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +137,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,6 +318,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -635,7 +660,7 @@
   <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,8 +674,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="21"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
@@ -755,9 +780,9 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -800,9 +825,9 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
@@ -843,9 +868,9 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
@@ -886,9 +911,9 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -929,9 +954,9 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,9 +997,9 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1015,9 +1040,9 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1058,9 +1083,9 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1101,9 +1126,9 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1144,9 +1169,9 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1187,9 +1212,9 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1230,9 +1255,9 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1273,9 +1298,9 @@
       </c>
     </row>
     <row r="14" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1483,44 +1508,44 @@
       </c>
     </row>
     <row r="17" spans="1:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
     </row>
     <row r="18" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
@@ -1904,44 +1929,44 @@
       <c r="AI26" s="10"/>
     </row>
     <row r="27" spans="1:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
     </row>
     <row r="28" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
@@ -3672,4 +3697,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC633DDB-2180-4F42-848E-B96B4BFA6D6E}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="18" style="21" customWidth="1"/>
+    <col min="7" max="7" width="34.88671875" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C207F8DE-1FFA-40FF-8391-549E66D70820}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>